--- a/Envanter Uygulamasi/bin/Debug/envanter.xlsx
+++ b/Envanter Uygulamasi/bin/Debug/envanter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EXCALIBUR\source\repos\Envanter Uygulamasi\Envanter Uygulamasi\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABF7512-6BF4-4F75-ABD9-8AB530CF97A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68B9D49D-5553-4628-BEDF-01CAFADEF872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="129" xr2:uid="{D45A8EA7-E2AC-4BC7-9E59-DC8C0749D91D}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" tabRatio="129" xr2:uid="{D45A8EA7-E2AC-4BC7-9E59-DC8C0749D91D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="253">
   <si>
     <t>Asset No</t>
   </si>
@@ -626,6 +626,174 @@
   </si>
   <si>
     <t>Burak çok yakışıklı</t>
+  </si>
+  <si>
+    <t>YSTTK</t>
+  </si>
+  <si>
+    <t>Projeksiyon</t>
+  </si>
+  <si>
+    <t>adsdasdas</t>
+  </si>
+  <si>
+    <t>dasdadas</t>
+  </si>
+  <si>
+    <t>dasdasdsa</t>
+  </si>
+  <si>
+    <t>yeniHOST</t>
+  </si>
+  <si>
+    <t>09.08.2024</t>
+  </si>
+  <si>
+    <t>Pasif</t>
+  </si>
+  <si>
+    <t>Acıklama</t>
+  </si>
+  <si>
+    <t>dsads</t>
+  </si>
+  <si>
+    <t>YSTTB</t>
+  </si>
+  <si>
+    <t>dsaasdas</t>
+  </si>
+  <si>
+    <t>Monitör</t>
+  </si>
+  <si>
+    <t>asdd</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>dasdsasd</t>
+  </si>
+  <si>
+    <t>dasds</t>
+  </si>
+  <si>
+    <t>dsds</t>
+  </si>
+  <si>
+    <t>dasdsa</t>
+  </si>
+  <si>
+    <t>ddsa</t>
+  </si>
+  <si>
+    <t>dsad</t>
+  </si>
+  <si>
+    <t>sads</t>
+  </si>
+  <si>
+    <t>adsa</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>asddasdasdasddasdsaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>yenihost</t>
+  </si>
+  <si>
+    <t>eskihost</t>
+  </si>
+  <si>
+    <t>kategori</t>
+  </si>
+  <si>
+    <t>marka</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>serino</t>
+  </si>
+  <si>
+    <t>macadres</t>
+  </si>
+  <si>
+    <t>macadres2</t>
+  </si>
+  <si>
+    <t>wrlsmacadres</t>
+  </si>
+  <si>
+    <t>ipno</t>
+  </si>
+  <si>
+    <t>bulundugubolge</t>
+  </si>
+  <si>
+    <t>eskikullanici</t>
+  </si>
+  <si>
+    <t>zimmetbasla</t>
+  </si>
+  <si>
+    <t>zimmetbitis</t>
+  </si>
+  <si>
+    <t>kiralabasla</t>
+  </si>
+  <si>
+    <t>kiralamabştir</t>
+  </si>
+  <si>
+    <t>kirlananfşr</t>
+  </si>
+  <si>
+    <t>dckoingmac</t>
+  </si>
+  <si>
+    <t>dockingıp</t>
+  </si>
+  <si>
+    <t>tedarik</t>
+  </si>
+  <si>
+    <t>alistarihi</t>
+  </si>
+  <si>
+    <t>stich</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>virüs</t>
+  </si>
+  <si>
+    <t>islemci</t>
+  </si>
+  <si>
+    <t>bellek</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>Hurda</t>
+  </si>
+  <si>
+    <t>anadınmı</t>
   </si>
 </sst>
 </file>
@@ -994,53 +1162,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DCBAE4-83D5-4AC5-A320-F9C4B2EC968A}">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
       <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" customWidth="1"/>
-    <col min="12" max="12" width="29.28515625" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="29.33203125" customWidth="1"/>
+    <col min="13" max="13" width="20.5546875" customWidth="1"/>
+    <col min="14" max="14" width="22.88671875" customWidth="1"/>
     <col min="15" max="15" width="24" customWidth="1"/>
-    <col min="16" max="16" width="32.5703125" customWidth="1"/>
-    <col min="17" max="17" width="29.28515625" customWidth="1"/>
-    <col min="18" max="18" width="29.7109375" customWidth="1"/>
-    <col min="19" max="19" width="23.28515625" customWidth="1"/>
-    <col min="20" max="20" width="25.7109375" customWidth="1"/>
-    <col min="21" max="21" width="37.7109375" customWidth="1"/>
-    <col min="22" max="22" width="34.7109375" customWidth="1"/>
-    <col min="23" max="23" width="27.85546875" customWidth="1"/>
+    <col min="16" max="16" width="32.5546875" customWidth="1"/>
+    <col min="17" max="17" width="29.33203125" customWidth="1"/>
+    <col min="18" max="18" width="29.6640625" customWidth="1"/>
+    <col min="19" max="19" width="23.33203125" customWidth="1"/>
+    <col min="20" max="20" width="25.6640625" customWidth="1"/>
+    <col min="21" max="21" width="37.6640625" customWidth="1"/>
+    <col min="22" max="22" width="34.6640625" customWidth="1"/>
+    <col min="23" max="23" width="27.88671875" customWidth="1"/>
     <col min="24" max="24" width="25" customWidth="1"/>
     <col min="25" max="25" width="19" customWidth="1"/>
     <col min="26" max="26" width="17" customWidth="1"/>
-    <col min="27" max="27" width="16.42578125" customWidth="1"/>
-    <col min="28" max="28" width="25.140625" customWidth="1"/>
+    <col min="27" max="27" width="16.44140625" customWidth="1"/>
+    <col min="28" max="28" width="25.109375" customWidth="1"/>
     <col min="29" max="29" width="24" customWidth="1"/>
-    <col min="30" max="30" width="17.28515625" customWidth="1"/>
-    <col min="31" max="32" width="15.85546875" customWidth="1"/>
-    <col min="33" max="33" width="16.42578125" customWidth="1"/>
-    <col min="34" max="34" width="16.140625" customWidth="1"/>
+    <col min="30" max="30" width="17.33203125" customWidth="1"/>
+    <col min="31" max="32" width="15.88671875" customWidth="1"/>
+    <col min="33" max="33" width="16.44140625" customWidth="1"/>
+    <col min="34" max="34" width="16.109375" customWidth="1"/>
     <col min="35" max="35" width="15" customWidth="1"/>
-    <col min="36" max="36" width="15.28515625" customWidth="1"/>
-    <col min="37" max="37" width="20.28515625" customWidth="1"/>
+    <col min="36" max="36" width="15.33203125" customWidth="1"/>
+    <col min="37" max="37" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1321,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -1254,7 +1422,7 @@
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>5616</v>
       </c>
@@ -1355,7 +1523,7 @@
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>5616552</v>
       </c>
@@ -1456,7 +1624,7 @@
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
@@ -1563,7 +1731,7 @@
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>104</v>
       </c>
@@ -1604,7 +1772,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>105</v>
       </c>
@@ -1655,7 +1823,7 @@
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>108</v>
       </c>
@@ -1718,7 +1886,7 @@
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>112</v>
       </c>
@@ -1829,7 +1997,7 @@
       </c>
       <c r="AK9" s="3"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>138</v>
       </c>
@@ -1940,7 +2108,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>112</v>
       </c>
@@ -2053,7 +2221,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1564000345</v>
       </c>
@@ -2152,7 +2320,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -2263,6 +2431,251 @@
       </c>
       <c r="AK13" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" t="s">
+        <v>198</v>
+      </c>
+      <c r="M14" t="s">
+        <v>105</v>
+      </c>
+      <c r="N14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" t="s">
+        <v>105</v>
+      </c>
+      <c r="R14" t="s">
+        <v>105</v>
+      </c>
+      <c r="W14" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H16" t="s">
+        <v>211</v>
+      </c>
+      <c r="I16" t="s">
+        <v>212</v>
+      </c>
+      <c r="K16" t="s">
+        <v>213</v>
+      </c>
+      <c r="L16" t="s">
+        <v>214</v>
+      </c>
+      <c r="N16" t="s">
+        <v>215</v>
+      </c>
+      <c r="O16" t="s">
+        <v>216</v>
+      </c>
+      <c r="P16" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>218</v>
+      </c>
+      <c r="R16" t="s">
+        <v>219</v>
+      </c>
+      <c r="S16" t="s">
+        <v>220</v>
+      </c>
+      <c r="T16" t="s">
+        <v>221</v>
+      </c>
+      <c r="U16" t="s">
+        <v>110</v>
+      </c>
+      <c r="V16" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" t="s">
+        <v>227</v>
+      </c>
+      <c r="H17" t="s">
+        <v>228</v>
+      </c>
+      <c r="I17" t="s">
+        <v>229</v>
+      </c>
+      <c r="J17" t="s">
+        <v>230</v>
+      </c>
+      <c r="K17" t="s">
+        <v>231</v>
+      </c>
+      <c r="L17" t="s">
+        <v>232</v>
+      </c>
+      <c r="M17" t="s">
+        <v>233</v>
+      </c>
+      <c r="N17" t="s">
+        <v>234</v>
+      </c>
+      <c r="O17" t="s">
+        <v>235</v>
+      </c>
+      <c r="P17" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>237</v>
+      </c>
+      <c r="R17" t="s">
+        <v>238</v>
+      </c>
+      <c r="S17" t="s">
+        <v>239</v>
+      </c>
+      <c r="T17" t="s">
+        <v>240</v>
+      </c>
+      <c r="U17" t="s">
+        <v>241</v>
+      </c>
+      <c r="V17" t="s">
+        <v>242</v>
+      </c>
+      <c r="W17" t="s">
+        <v>243</v>
+      </c>
+      <c r="X17" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
